--- a/data/trans_camb/P54_A_2_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P54_A_2_R-Edad-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>56,39</t>
+          <t>55,59</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>67,21</t>
+          <t>67,52</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>66,16</t>
+          <t>64,38</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>72,22</t>
+          <t>72,32</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>61,07</t>
+          <t>59,86</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>69,82</t>
+          <t>70,03</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>45,95; 64,63</t>
+          <t>45,63; 63,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>57,26; 74,17</t>
+          <t>59,36; 75,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>57,67; 73,68</t>
+          <t>55,42; 72,41</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>64,41; 79,0</t>
+          <t>64,83; 79,64</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>54,15; 67,26</t>
+          <t>53,39; 66,11</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>64,14; 75,61</t>
+          <t>64,06; 74,86</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>563,6%</t>
+          <t>555,67%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>671,71%</t>
+          <t>674,86%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>401,06%</t>
+          <t>390,3%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>437,81%</t>
+          <t>438,44%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>467,54%</t>
+          <t>458,29%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>534,5%</t>
+          <t>536,14%</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>351,63; 1047,6</t>
+          <t>321,1; 971,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>414,16; 1194,95</t>
+          <t>407,61; 1223,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>256,34; 611,62</t>
+          <t>250,82; 618,34</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>286,08; 656,35</t>
+          <t>294,24; 716,33</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>341,57; 686,81</t>
+          <t>323,9; 653,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>388,13; 771,21</t>
+          <t>387,68; 769,96</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>49,09</t>
+          <t>49,6</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>57,91</t>
+          <t>57,78</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>59,02</t>
+          <t>58,22</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>67,12</t>
+          <t>66,99</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>53,85</t>
+          <t>53,72</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>62,3</t>
+          <t>62,17</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>36,32; 59,99</t>
+          <t>36,05; 61,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>45,47; 67,94</t>
+          <t>43,87; 67,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>49,25; 66,96</t>
+          <t>48,14; 67,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>59,49; 73,66</t>
+          <t>59,29; 73,72</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>46,03; 61,32</t>
+          <t>45,34; 60,8</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>54,14; 69,05</t>
+          <t>54,98; 68,3</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>246,12%</t>
+          <t>248,54%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>290,33%</t>
+          <t>289,53%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>389,87%</t>
+          <t>384,58%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>443,36%</t>
+          <t>442,45%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>305,26%</t>
+          <t>304,48%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>353,22%</t>
+          <t>352,33%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>115,08; 467,53</t>
+          <t>118,67; 515,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>141,09; 566,56</t>
+          <t>134,55; 590,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>243,85; 618,67</t>
+          <t>244,91; 644,66</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>288,1; 684,27</t>
+          <t>277,58; 708,69</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>184,45; 477,26</t>
+          <t>185,69; 448,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>215,23; 525,05</t>
+          <t>230,87; 514,86</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>58,73</t>
+          <t>58,25</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>60,41</t>
+          <t>59,54</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>57,6</t>
+          <t>57,1</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>63,44</t>
+          <t>63,69</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>58,14</t>
+          <t>57,66</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>61,96</t>
+          <t>61,68</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>47,74; 66,36</t>
+          <t>49,75; 66,47</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>52,61; 67,05</t>
+          <t>51,67; 66,52</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>50,58; 64,22</t>
+          <t>50,3; 63,38</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>57,24; 68,62</t>
+          <t>57,21; 69,14</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>51,82; 63,7</t>
+          <t>52,18; 62,84</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>57,1; 66,29</t>
+          <t>56,5; 66,23</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>384,38%</t>
+          <t>381,29%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>395,35%</t>
+          <t>389,73%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>319,75%</t>
+          <t>316,99%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>352,15%</t>
+          <t>353,56%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>348,62%</t>
+          <t>345,79%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>371,57%</t>
+          <t>369,87%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>262,06; 567,52</t>
+          <t>262,92; 587,68</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>266,8; 577,72</t>
+          <t>256,86; 575,52</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>229,28; 446,46</t>
+          <t>225,56; 447,54</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>261,04; 485,35</t>
+          <t>252,11; 481,43</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>267,46; 442,85</t>
+          <t>267,61; 447,5</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>293,51; 479,97</t>
+          <t>282,74; 471,64</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>52,59</t>
+          <t>52,04</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>62,1</t>
+          <t>62,11</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>56,5</t>
+          <t>55,49</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>62,74</t>
+          <t>62,76</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>54,6</t>
+          <t>53,79</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>62,44</t>
+          <t>62,45</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>44,32; 59,44</t>
+          <t>45,32; 59,75</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>55,45; 68,06</t>
+          <t>55,73; 67,74</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>49,11; 62,92</t>
+          <t>48,31; 61,38</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>56,69; 68,62</t>
+          <t>55,58; 68,14</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>49,36; 59,17</t>
+          <t>49,16; 58,97</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>57,79; 66,84</t>
+          <t>57,92; 66,61</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>313,18%</t>
+          <t>309,93%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>369,81%</t>
+          <t>369,89%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>249,18%</t>
+          <t>244,74%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>276,73%</t>
+          <t>276,81%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>275,67%</t>
+          <t>271,57%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>315,24%</t>
+          <t>315,31%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>213,72; 450,29</t>
+          <t>227,6; 467,9</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>265,73; 531,87</t>
+          <t>269,87; 527,37</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>180,19; 342,86</t>
+          <t>178,54; 333,9</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>207,57; 373,98</t>
+          <t>203,79; 370,15</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>213,67; 345,16</t>
+          <t>214,38; 339,67</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>250,77; 398,11</t>
+          <t>249,13; 389,2</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>62,11</t>
+          <t>61,32</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>66,88</t>
+          <t>67,02</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>68,92</t>
+          <t>68,86</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>71,67</t>
+          <t>71,72</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>65,74</t>
+          <t>65,28</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>69,49</t>
+          <t>69,58</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>54,06; 70,13</t>
+          <t>53,13; 68,41</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>59,52; 73,24</t>
+          <t>59,52; 73,36</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>60,56; 76,19</t>
+          <t>61,33; 75,38</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>63,58; 78,09</t>
+          <t>63,97; 78,25</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>59,81; 71,0</t>
+          <t>59,58; 70,52</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>64,17; 73,94</t>
+          <t>63,92; 74,25</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>693,37%</t>
+          <t>684,48%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>746,6%</t>
+          <t>748,05%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>413,69%</t>
+          <t>413,3%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>430,19%</t>
+          <t>430,47%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>519,26%</t>
+          <t>515,6%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>548,93%</t>
+          <t>549,54%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>430,1; 1156,37</t>
+          <t>449,63; 1126,38</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>480,52; 1225,97</t>
+          <t>488,69; 1221,42</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>271,2; 632,51</t>
+          <t>285,37; 630,93</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>291,47; 646,08</t>
+          <t>287,14; 650,39</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>364,62; 682,63</t>
+          <t>378,43; 705,38</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>397,76; 724,8</t>
+          <t>403,16; 748,51</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1381,32 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>59,26</t>
+          <t>58,01</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>61,65</t>
+          <t>61,16</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>59,97</t>
+          <t>60,34</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>63,79</t>
+          <t>63,5</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>59,74</t>
+          <t>59,42</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>62,89</t>
+          <t>62,52</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>49,26; 68,25</t>
+          <t>48,4; 66,11</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>51,86; 69,25</t>
+          <t>51,54; 68,66</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>50,49; 67,95</t>
+          <t>51,89; 67,82</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>56,35; 70,48</t>
+          <t>55,63; 69,44</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>52,39; 65,16</t>
+          <t>52,93; 65,11</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>56,61; 67,86</t>
+          <t>56,43; 67,56</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>316,2%</t>
+          <t>309,5%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>328,98%</t>
+          <t>326,29%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>276,45%</t>
+          <t>278,32%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>294,06%</t>
+          <t>292,92%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>293,65%</t>
+          <t>292,17%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>309,11%</t>
+          <t>307,41%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>210,08; 501,49</t>
+          <t>210,45; 468,21</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>217,02; 504,33</t>
+          <t>215,9; 481,24</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>179,55; 403,26</t>
+          <t>181,52; 393,41</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>194,76; 413,31</t>
+          <t>192,84; 402,71</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>210,28; 378,2</t>
+          <t>219,16; 395,92</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>230,64; 403,99</t>
+          <t>231,12; 404,16</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1537,32 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>56,31</t>
+          <t>55,74</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>62,5</t>
+          <t>62,3</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>60,84</t>
+          <t>60,26</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>66,3</t>
+          <t>66,32</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>58,64</t>
+          <t>58,08</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>64,47</t>
+          <t>64,39</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>52,3; 60,21</t>
+          <t>51,64; 59,56</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>58,72; 65,66</t>
+          <t>58,94; 65,55</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>57,38; 63,78</t>
+          <t>57,03; 63,18</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>63,5; 68,86</t>
+          <t>63,55; 68,97</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>56,03; 61,17</t>
+          <t>55,77; 60,33</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>62,43; 66,69</t>
+          <t>62,06; 66,54</t>
         </is>
       </c>
     </row>
@@ -1613,32 +1613,32 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>372,61%</t>
+          <t>368,82%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>413,58%</t>
+          <t>412,21%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>324,45%</t>
+          <t>321,45%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>353,59%</t>
+          <t>353,74%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>346,22%</t>
+          <t>342,93%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>380,66%</t>
+          <t>380,18%</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,39 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>304,85; 466,4</t>
+          <t>296,72; 450,01</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>339,48; 494,76</t>
+          <t>336,37; 498,04</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>274,82; 375,55</t>
+          <t>275,63; 376,08</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>305,96; 411,96</t>
+          <t>308,15; 412,26</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>308,04; 395,98</t>
+          <t>300,91; 389,0</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>338,15; 431,11</t>
+          <t>333,48; 430,35</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
